--- a/data/trans_orig/P04D$aparatos-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04D$aparatos-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71A2D44B-C2EC-43DA-ACB6-E7C8C62B5BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CC76C8F-3B3D-40DE-9D8D-B624F6BD81F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59C03852-1AE6-41E0-865D-C3173BECAE4A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A45B665E-9103-40C3-B443-DC7A425E2AAE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="431">
   <si>
-    <t>Población según el tipo de calefacción que tiene en su vivienda en 2012</t>
+    <t>Población según el tipo de calefacción que tiene en su vivienda (multirrespuesta) en 2012</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -508,7 +508,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el tipo de calefacción que tiene en su vivienda en 2016</t>
+    <t>Población según el tipo de calefacción que tiene en su vivienda (multirrespuesta) en 2016</t>
   </si>
   <si>
     <t>60,96%</t>
@@ -925,412 +925,412 @@
     <t>15,98%</t>
   </si>
   <si>
-    <t>Población según el tipo de calefacción que tiene en su vivienda en 2023</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>Población según el tipo de calefacción que tiene en su vivienda (multirrespuesta) en 2023</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E889D4-B2F1-4D0B-A4AE-DC08DAC44073}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDD5077-9011-40A1-BEDF-0D1667443D5A}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2379,7 +2379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C823EFEE-1B6E-4290-B342-B3257C4239B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D920FC-4455-43E2-B6F9-5816E994AC61}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3016,7 +3016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCF7B54-08EF-487C-ACF0-487E3A0BE29F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E34FB18-EB33-4E8D-80B1-56CF4D3E45E9}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3146,19 +3146,19 @@
         <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>312</v>
@@ -3274,19 +3274,19 @@
         <v>340</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>66</v>
+        <v>341</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>345</v>
@@ -3295,7 +3295,7 @@
         <v>346</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>347</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3304,31 +3304,31 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3337,31 +3337,31 @@
         <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3372,31 +3372,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3405,31 +3405,31 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3438,31 +3438,31 @@
         <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3471,31 +3471,31 @@
         <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3506,31 +3506,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -3539,31 +3539,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -3572,19 +3572,19 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>419</v>
@@ -3629,7 +3629,7 @@
         <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
